--- a/B-IDI/全球排名模版.xlsx
+++ b/B-IDI/全球排名模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyuguo/Github-database/OHI2021/B-IDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422EE1D7-7C4E-2748-AB08-8E2591334FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4EDFF9-1FFF-1943-A93E-B1C7AF6CED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="149">
   <si>
     <t>Bulgaria</t>
   </si>
@@ -1613,10 +1613,10 @@
         <v>101</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K3" s="10">
-        <v>49.25</v>
+        <v>49.14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1644,10 +1644,10 @@
         <v>102</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="K4" s="10">
-        <v>49.14</v>
+        <v>48.92</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1675,10 +1675,10 @@
         <v>103</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="K5" s="10">
-        <v>48.92</v>
+        <v>48.89</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1706,10 +1706,10 @@
         <v>104</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="K6" s="10">
-        <v>48.89</v>
+        <v>48.83</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1737,10 +1737,10 @@
         <v>105</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="K7" s="10">
-        <v>48.83</v>
+        <v>48.78</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1768,10 +1768,10 @@
         <v>106</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="K8" s="10">
-        <v>48.78</v>
+        <v>48.67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1799,10 +1799,10 @@
         <v>107</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="K9" s="10">
-        <v>48.67</v>
+        <v>48.61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1830,10 +1830,10 @@
         <v>108</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="K10" s="10">
-        <v>48.61</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1861,10 +1861,10 @@
         <v>109</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="K11" s="10">
-        <v>48.38</v>
+        <v>48.36</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1892,10 +1892,10 @@
         <v>110</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="K12" s="10">
-        <v>48.36</v>
+        <v>48.23</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1923,10 +1923,10 @@
         <v>111</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="K13" s="10">
-        <v>48.23</v>
+        <v>48.09</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1954,10 +1954,10 @@
         <v>112</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="K14" s="10">
-        <v>48.09</v>
+        <v>47.75</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1985,10 +1985,10 @@
         <v>113</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="K15" s="10">
-        <v>47.75</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2016,10 +2016,10 @@
         <v>114</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="K16" s="10">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2047,10 +2047,10 @@
         <v>115</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="K17" s="10">
-        <v>47.4</v>
+        <v>47.39</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2078,10 +2078,10 @@
         <v>116</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K18" s="10">
-        <v>47.39</v>
+        <v>47.36</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2109,10 +2109,10 @@
         <v>117</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K19" s="10">
-        <v>47.36</v>
+        <v>46.86</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2140,7 +2140,7 @@
         <v>118</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="K20" s="10">
         <v>46.86</v>
@@ -2171,10 +2171,10 @@
         <v>119</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="K21" s="10">
-        <v>46.86</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2202,10 +2202,10 @@
         <v>120</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="K22" s="10">
-        <v>46.15</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2233,10 +2233,10 @@
         <v>121</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="K23" s="10">
-        <v>45.99</v>
+        <v>45.65</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2264,10 +2264,10 @@
         <v>122</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K24" s="10">
-        <v>45.65</v>
+        <v>45.51</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2295,10 +2295,10 @@
         <v>123</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="K25" s="10">
-        <v>45.51</v>
+        <v>45.42</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2326,10 +2326,10 @@
         <v>124</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="K26" s="10">
-        <v>45.42</v>
+        <v>45.24</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2357,10 +2357,10 @@
         <v>125</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K27" s="10">
-        <v>45.24</v>
+        <v>45.14</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2388,10 +2388,10 @@
         <v>126</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="K28" s="10">
-        <v>45.14</v>
+        <v>44.82</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2419,10 +2419,10 @@
         <v>127</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="K29" s="10">
-        <v>44.82</v>
+        <v>44.75</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2450,10 +2450,10 @@
         <v>128</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K30" s="10">
-        <v>44.75</v>
+        <v>44.51</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2481,10 +2481,10 @@
         <v>129</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="K31" s="10">
-        <v>44.51</v>
+        <v>44.24</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2512,10 +2512,10 @@
         <v>130</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="K32" s="10">
-        <v>44.24</v>
+        <v>43.95</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2543,10 +2543,10 @@
         <v>131</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="K33" s="10">
-        <v>43.95</v>
+        <v>43.05</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2574,10 +2574,10 @@
         <v>132</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="K34" s="10">
-        <v>43.05</v>
+        <v>42.87</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2605,10 +2605,10 @@
         <v>133</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="K35" s="10">
-        <v>42.87</v>
+        <v>42.34</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2636,10 +2636,10 @@
         <v>134</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K36" s="10">
-        <v>42.34</v>
+        <v>41.94</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2667,10 +2667,10 @@
         <v>135</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="K37" s="10">
-        <v>41.94</v>
+        <v>41.62</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2698,10 +2698,10 @@
         <v>136</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="K38" s="10">
-        <v>41.62</v>
+        <v>41.34</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2729,10 +2729,10 @@
         <v>137</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="K39" s="10">
-        <v>41.34</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2760,10 +2760,10 @@
         <v>138</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="K40" s="10">
-        <v>40.700000000000003</v>
+        <v>40.619999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2791,10 +2791,10 @@
         <v>139</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="K41" s="10">
-        <v>40.619999999999997</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2822,10 +2822,10 @@
         <v>140</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="K42" s="10">
-        <v>40.4</v>
+        <v>39.56</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2853,10 +2853,10 @@
         <v>141</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="K43" s="10">
-        <v>39.56</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2884,10 +2884,10 @@
         <v>142</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="K44" s="10">
-        <v>38.200000000000003</v>
+        <v>38.19</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2915,10 +2915,10 @@
         <v>143</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="K45" s="10">
-        <v>38.19</v>
+        <v>37.22</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2946,10 +2946,10 @@
         <v>144</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="K46" s="10">
-        <v>37.22</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2977,10 +2977,10 @@
         <v>145</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="K47" s="10">
-        <v>36.94</v>
+        <v>34.72</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3004,15 +3004,9 @@
         <v>49.5</v>
       </c>
       <c r="H48" s="6"/>
-      <c r="I48" s="6">
-        <v>146</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="10">
-        <v>34.72</v>
-      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="6">
